--- a/data/robothor_to_grocery.xlsx
+++ b/data/robothor_to_grocery.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/Library/CloudStorage/OneDrive-ThePennsylvaniaStateUniversity/Dr. Wagner/AI2THOR/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38180CBC-98D9-5D43-8637-A5FF93A0F439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="18140" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -274,254 +268,254 @@
     <t>Zucchini</t>
   </si>
   <si>
+    <t>1_candle</t>
+  </si>
+  <si>
+    <t>2_candle</t>
+  </si>
+  <si>
+    <t>2_desklamp</t>
+  </si>
+  <si>
+    <t>1_desklamp</t>
+  </si>
+  <si>
+    <t>3_desklamp</t>
+  </si>
+  <si>
+    <t>1_vase</t>
+  </si>
+  <si>
+    <t>2_vase</t>
+  </si>
+  <si>
+    <t>3_vase</t>
+  </si>
+  <si>
+    <t>1_sidetable</t>
+  </si>
+  <si>
+    <t>1_coffeetable</t>
+  </si>
+  <si>
+    <t>1_diningtable</t>
+  </si>
+  <si>
+    <t>2_baseballbat</t>
+  </si>
+  <si>
+    <t>3_baseballbat</t>
+  </si>
+  <si>
+    <t>1_baseballbat</t>
+  </si>
+  <si>
+    <t>2_statue</t>
+  </si>
+  <si>
+    <t>3_statue</t>
+  </si>
+  <si>
     <t>1_bottle</t>
   </si>
   <si>
+    <t>2_spraybottle</t>
+  </si>
+  <si>
     <t>1_spraybottle</t>
   </si>
   <si>
-    <t>2_spraybottle</t>
-  </si>
-  <si>
-    <t>1_vase</t>
+    <t>3_spraybottle</t>
+  </si>
+  <si>
+    <t>1_tvstand</t>
+  </si>
+  <si>
+    <t>2_pot</t>
+  </si>
+  <si>
+    <t>1_pot</t>
+  </si>
+  <si>
+    <t>2_pillow</t>
+  </si>
+  <si>
+    <t>1_pillow</t>
+  </si>
+  <si>
+    <t>3_pillow</t>
+  </si>
+  <si>
+    <t>3_mug</t>
+  </si>
+  <si>
+    <t>2_mug</t>
   </si>
   <si>
     <t>1_mug</t>
   </si>
   <si>
-    <t>2_mug</t>
+    <t>2_book</t>
+  </si>
+  <si>
+    <t>1_book</t>
+  </si>
+  <si>
+    <t>3_book</t>
+  </si>
+  <si>
+    <t>2_houseplant</t>
+  </si>
+  <si>
+    <t>1_houseplant</t>
+  </si>
+  <si>
+    <t>3_houseplant</t>
+  </si>
+  <si>
+    <t>2_garbagecan</t>
+  </si>
+  <si>
+    <t>1_garbagecan</t>
+  </si>
+  <si>
+    <t>3_garbagecan</t>
+  </si>
+  <si>
+    <t>1_drawer</t>
+  </si>
+  <si>
+    <t>1_shelf</t>
+  </si>
+  <si>
+    <t>2_bowl</t>
+  </si>
+  <si>
+    <t>1_bowl</t>
+  </si>
+  <si>
+    <t>3_bowl</t>
+  </si>
+  <si>
+    <t>2_box</t>
   </si>
   <si>
     <t>1_box</t>
   </si>
   <si>
-    <t>2_box</t>
+    <t>3_box</t>
+  </si>
+  <si>
+    <t>2_plate</t>
+  </si>
+  <si>
+    <t>1_plate</t>
+  </si>
+  <si>
+    <t>1_dresser</t>
+  </si>
+  <si>
+    <t>1_chair</t>
+  </si>
+  <si>
+    <t>2_chair</t>
+  </si>
+  <si>
+    <t>2_cellphone</t>
+  </si>
+  <si>
+    <t>2_alarmclock</t>
+  </si>
+  <si>
+    <t>1_alarmclock</t>
+  </si>
+  <si>
+    <t>3_alarmclock</t>
+  </si>
+  <si>
+    <t>1_desk</t>
+  </si>
+  <si>
+    <t>2_cup</t>
   </si>
   <si>
     <t>1_cup</t>
   </si>
   <si>
-    <t>2_cup</t>
-  </si>
-  <si>
-    <t>1_shelf</t>
-  </si>
-  <si>
-    <t>1_peppershaker</t>
-  </si>
-  <si>
-    <t>2_peppershaker</t>
-  </si>
-  <si>
-    <t>1_drawer</t>
-  </si>
-  <si>
-    <t>2_drawer</t>
-  </si>
-  <si>
-    <t>1_desklamp</t>
-  </si>
-  <si>
-    <t>2_desklamp</t>
-  </si>
-  <si>
-    <t>1_bowl</t>
-  </si>
-  <si>
-    <t>2_bowl</t>
-  </si>
-  <si>
-    <t>1_baseballbat</t>
-  </si>
-  <si>
-    <t>2_baseballbat</t>
-  </si>
-  <si>
-    <t>1_candle</t>
-  </si>
-  <si>
-    <t>2_candle</t>
-  </si>
-  <si>
-    <t>1_garbagecan</t>
-  </si>
-  <si>
-    <t>2_garbagecan</t>
-  </si>
-  <si>
-    <t>1_cd</t>
-  </si>
-  <si>
-    <t>1_pen</t>
-  </si>
-  <si>
-    <t>2_pen</t>
-  </si>
-  <si>
-    <t>1_dresser</t>
-  </si>
-  <si>
-    <t>2_dresser</t>
-  </si>
-  <si>
-    <t>1_saltshaker</t>
-  </si>
-  <si>
-    <t>2_saltshaker</t>
+    <t>3_cup</t>
+  </si>
+  <si>
+    <t>1_armchair</t>
+  </si>
+  <si>
+    <t>2_armchair</t>
+  </si>
+  <si>
+    <t>3_armchair</t>
   </si>
   <si>
     <t>1_shelvingunit</t>
   </si>
   <si>
-    <t>1_coffeetable</t>
-  </si>
-  <si>
-    <t>1_diningtable</t>
-  </si>
-  <si>
-    <t>1_sidetable</t>
-  </si>
-  <si>
-    <t>2_coffeetable</t>
-  </si>
-  <si>
-    <t>1_book</t>
-  </si>
-  <si>
-    <t>2_book</t>
-  </si>
-  <si>
-    <t>1_chair</t>
-  </si>
-  <si>
-    <t>2_chair</t>
-  </si>
-  <si>
-    <t>1_pot</t>
-  </si>
-  <si>
-    <t>2_pot</t>
-  </si>
-  <si>
-    <t>1_pencil</t>
-  </si>
-  <si>
-    <t>2_pencil</t>
-  </si>
-  <si>
-    <t>1_statue</t>
-  </si>
-  <si>
-    <t>1_pillow</t>
-  </si>
-  <si>
-    <t>2_pillow</t>
-  </si>
-  <si>
-    <t>1_watch</t>
-  </si>
-  <si>
-    <t>1_butterknife</t>
-  </si>
-  <si>
-    <t>1_alarmclock</t>
-  </si>
-  <si>
-    <t>2_alarmclock</t>
-  </si>
-  <si>
-    <t>1_desk</t>
-  </si>
-  <si>
-    <t>1_plate</t>
-  </si>
-  <si>
-    <t>2_plate</t>
+    <t>2_laptop</t>
+  </si>
+  <si>
+    <t>1_laptop</t>
+  </si>
+  <si>
+    <t>3_laptop</t>
+  </si>
+  <si>
+    <t>3_remotecontrol</t>
+  </si>
+  <si>
+    <t>2_remotecontrol</t>
+  </si>
+  <si>
+    <t>1_remotecontrol</t>
+  </si>
+  <si>
+    <t>2_painting</t>
   </si>
   <si>
     <t>1_painting</t>
   </si>
   <si>
-    <t>2_painting</t>
-  </si>
-  <si>
-    <t>1_tennisracket</t>
+    <t>3_painting</t>
+  </si>
+  <si>
+    <t>2_apple</t>
+  </si>
+  <si>
+    <t>1_apple</t>
+  </si>
+  <si>
+    <t>3_apple</t>
+  </si>
+  <si>
+    <t>1_basketball</t>
   </si>
   <si>
     <t>1_bed</t>
   </si>
   <si>
-    <t>2_bed</t>
-  </si>
-  <si>
-    <t>1_armchair</t>
-  </si>
-  <si>
-    <t>2_armchair</t>
-  </si>
-  <si>
-    <t>1_laptop</t>
-  </si>
-  <si>
-    <t>2_laptop</t>
-  </si>
-  <si>
-    <t>1_fork</t>
-  </si>
-  <si>
-    <t>1_teddybear</t>
-  </si>
-  <si>
-    <t>1_houseplant</t>
-  </si>
-  <si>
-    <t>2_houseplant</t>
-  </si>
-  <si>
     <t>1_sofa</t>
   </si>
   <si>
-    <t>2_sofa</t>
-  </si>
-  <si>
-    <t>1_tvstand</t>
+    <t>2_television</t>
   </si>
   <si>
     <t>1_television</t>
   </si>
   <si>
-    <t>1_cellphone</t>
-  </si>
-  <si>
-    <t>2_cellphone</t>
-  </si>
-  <si>
-    <t>1_newspaper</t>
-  </si>
-  <si>
-    <t>2_newspaper</t>
-  </si>
-  <si>
-    <t>1_apple</t>
-  </si>
-  <si>
-    <t>2_apple</t>
-  </si>
-  <si>
-    <t>1_basketball</t>
-  </si>
-  <si>
-    <t>1_remotecontrol</t>
-  </si>
-  <si>
-    <t>2_remotecontrol</t>
+    <t>3_television</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,14 +578,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -638,7 +624,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -670,27 +656,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -722,24 +690,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -915,20 +865,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,7 +883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -953,7 +897,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -967,7 +911,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -981,7 +925,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -995,7 +939,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1009,7 +953,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1023,7 +967,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1037,7 +981,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1051,7 +995,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1065,7 +1009,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1079,7 +1023,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1093,7 +1037,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1107,7 +1051,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1121,7 +1065,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1135,7 +1079,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1149,7 +1093,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1163,7 +1107,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1177,7 +1121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1191,7 +1135,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1205,7 +1149,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1219,7 +1163,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1233,7 +1177,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1247,7 +1191,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1261,7 +1205,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1275,7 +1219,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1289,7 +1233,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1303,7 +1247,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1317,7 +1261,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1331,7 +1275,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1345,7 +1289,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1359,7 +1303,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1373,7 +1317,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1387,7 +1331,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1401,7 +1345,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1415,7 +1359,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1429,7 +1373,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1443,7 +1387,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1457,7 +1401,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1471,7 +1415,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1485,7 +1429,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1499,7 +1443,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1513,7 +1457,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1527,7 +1471,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1541,7 +1485,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1555,7 +1499,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1569,7 +1513,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1583,7 +1527,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1597,7 +1541,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1611,7 +1555,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1625,7 +1569,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1639,7 +1583,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1653,7 +1597,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1667,7 +1611,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1681,7 +1625,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1695,7 +1639,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1709,7 +1653,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1723,7 +1667,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1737,7 +1681,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1751,7 +1695,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1765,7 +1709,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1779,7 +1723,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1793,7 +1737,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1807,7 +1751,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1821,7 +1765,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1835,7 +1779,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1849,7 +1793,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1863,7 +1807,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1877,7 +1821,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1891,7 +1835,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1905,7 +1849,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1919,7 +1863,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1933,7 +1877,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1947,7 +1891,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1961,7 +1905,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1975,7 +1919,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1989,7 +1933,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2003,7 +1947,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2017,7 +1961,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2031,7 +1975,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2045,7 +1989,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2059,7 +2003,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
